--- a/01Requirement/01Docs/后台用例原始文档.xlsx
+++ b/01Requirement/01Docs/后台用例原始文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="413">
   <si>
     <t>用例编号</t>
   </si>
@@ -802,26 +802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.0系统管理员检索病例
-1. 系统管理员进入病例管理界面
-2. 系统管理员输入要搜索的关键字
-3. 系统管理员发出搜索请求
-4. 系统根据关键字进行搜索
-5. 搜索完成后刷新病例信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.0.E.1 搜索关键字过长（第2步）
-1. 系统提示搜索关键字过长，将搜索不到病例并请求管理员修改关键字
-2a. 系统管理员修改关键字重新搜索，用例继续进行
-2b. 系统管理员清除搜索内容，用例终止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>病例管理之病例添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,35 +818,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病例名称从已有病例中选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统管理选进入病例管理界面，并向系统请求添加新的病例，系统请求管理员填写要添加的病例信息，管理员完成添加后请求系统保存信息，系统保存完毕后提示管理员病例已添加并刷新病例信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.0 系统管理员添加新病例
-1. 系统管理员进入病例管理界面，向系统请求添加病例
-2. 系统提示用户输入病例信息，包括病例描述、接诊描述、病例检查、诊断结果、治疗方案这五个的文字描述、图片已经视频的一种或多种信息
-3. 系统管理员填写完成后向系统请求添加操作
-4. 系统进行添加操作
-5. 系统完成添加操作后提示管理员病例已添加并刷新病例信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.0.E.1 病例信息未填写完全（第4步）
-1. 系统提示管理员病例信息未填写完全，请求继续填写
-2a. 系统管理员填写病例信息，用例继续进行
-2b. 系统管理员选择返回病例管理界面，系统终止用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,43 +851,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 系统管理员可以在系统修改病例前任意时刻取消操作
-2. 图片和视频上传应当有一定的网络带宽要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统管理员登录，病例管理之病例搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 病例名称不可以被修改
-2. 病例只能单条逐个修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员进入病例管理页面直接选择要修改的用例或者搜索要修改的用例名称并进行病例修改，系统管理员修改完成后请求系统保存，系统完成保存后提示管理员病例信息已修改并刷新病例界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.0 系统管理员修改病例信息
-1. 系统管理员进入病例管理界面
-2. 系统管理员通过搜索选择病例或者直接选择病例
-3. 系统管理员请求修改病例
-4. 系统显示病例信息并请求系统管理员进行修改
-5. 系统管理员完成修改后请求系统保存修改后的信息
-6. 系统保存修改后的信息
-7. 系统保存完成后提示管理员病例已修改并刷新病例界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.0.E.1 病例信息未修改（第6步）
-1. 系统提示管理员病例信息未做修改，并询问是否修改
-2a. 系统管理员选择是，继续修改病例信息，用例继续进行
-3a. 系统管理员选择否，返回病例管理界面，用例终止
-12.0.E.2 病例必要信息未填写完全（第6步）
-1. 系统提示管理员病例必要信息未填写完全，请求继续填写
-2a. 系统管理员填写要修改的病例信息，用例继续进行
-2b. 系统管理员选择返回病例管理界面，系统终止用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,21 +899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16.0 系统管理员删除单个病例
-1. 系统管理员进入病例管理界面
-2. 系统管理员直接选择或搜索选择病例
-3. 系统管理员选择一个病例
-4. 系统管理员请求删除操作
-5. 系统删除病例同时通知管理员病例已删除并刷新病例管理界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.1 系统管理员删除多个病例（第2步之后分支出来）
-1. 系统管理员选择多个病例
-2. 返回到第4步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统管理员可以在系统删除之前取消删除操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,24 +924,6 @@
   </si>
   <si>
     <t>系统完成备份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.0 系统管理员对系统进行备份操作
-1. 系统管理员进入系统备份与恢复界面
-2. 系统管理员向系统发出备份请求
-3. 系统进行备份操作
-4. 系统提示管理员备份完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.0.E.1 一个病例已被管理员删除（第5步）
-1. 系统提示管理员病例已被其他管理员删除
-2. 用例终止
-16.1.E.1 一个或多个病例已被管理员删除（第5步）
-1. 系统提示管理员一个或多个病例已被其他管理员删除
-2. 系统删除其他未被其他管理员删除的病例
-3. 用例继续进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1095,19 +982,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18.0 系统管理员使用备份信息恢复系统
-1. 系统管理员进入备份与恢复界面
-2. 系统管理员选择已有备份信息中的一个
-3. 系统管理员请求恢复操作
-4. 系统进行恢复
-5. 系统恢复完成后提示管理员重新登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备份信息管理之删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1122,21 +996,6 @@
   </si>
   <si>
     <t>备份信息已被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.0 系统管理员删除已有备份
-1. 系统管理员进入备份管理界面
-2. 系统管理员选择一个或多个备份信息
-3. 系统管理员请求删除操作
-4. 系统进行删除操作
-5. 系统提示管理员所选备份已被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.0.E.1 备份信息已被其他管理员删除
-1. 系统提示管理员备份信息已被其他管理员删除
-2. 系统继续删除未被删除的备份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1161,6 +1020,1004 @@
 6. 系统管理员请求保存已修改的信息
 7. 系统保存已修改的信息
 8. 系统提示管理员信息已修改并刷新该科室信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品管理之检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入药品管理界面，输入要搜索的关键字，向系统请求搜索，系统搜索完毕后刷新药品显示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品界面显示要搜索的药品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统根据药品名称搜索
+2. 关键字为空时显示所有药品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品管理之药品添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理选进入药品管理界面，并向系统请求添加新的药品，系统请求管理员填写要添加的药品信息，管理员完成添加后请求系统保存信息，系统保存完毕后提示管理员药品已添加并刷新药品信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的药品被系统管理员添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.0 系统管理员添加新药品
+1. 系统管理员进入药品管理界面，向系统请求添加药品
+2. 系统提示用户输入药品信息，包括药品名称、药品价格、药品类别等一种或多种信息
+3. 系统管理员填写完成后向系统请求添加操作
+4. 系统进行添加操作
+5. 系统完成添加操作后提示管理员药品已添加并刷新药品信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.0.E.1 药品信息未填写完全（第4步）
+1. 系统提示管理员药品信息未填写完全，请求继续填写
+2a. 系统管理员填写药品信息，用例继续进行
+2b. 系统管理员选择返回药品管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员可以在添加完成前任意时刻取消添加操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品名称不可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品价格应当正确填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品管理之药品修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入药品管理页面直接选择要修改的药品或者搜索要修改的药品名称并进行药品修改，系统管理员修改完成后请求系统保存，系统完成保存后提示管理员药品信息已修改并刷新药品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要修改的药品信息存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员完成药品信息的修改操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.0 系统管理员修改药品信息
+1. 系统管理员进入药品管理界面
+2. 系统管理员通过搜索选择药品或者直接选择药品
+3. 系统管理员请求修改药品信息
+4. 系统显示药品信息并请求系统管理员进行修改
+5. 系统管理员完成修改后请求系统保存修改后的信息
+6. 系统保存修改后的信息
+7. 系统保存完成后提示管理员药品已修改并刷新药品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.0.E.1 药品信息未修改（第6步）
+1. 系统提示管理员药品信息未做修改，并询问是否修改
+2a. 系统管理员选择是，继续修改药品信息，用例继续进行
+3a. 系统管理员选择否，返回药品管理界面，用例终止
+12.0.E.2 药品必要信息未填写完全（第6步）
+1. 系统提示管理员药品必要信息未填写完全，请求继续填写
+2a. 系统管理员填写要修改的药品信息，用例继续进行
+2b. 系统管理员选择返回药品管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录，药品管理之检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品只能单条逐个修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员可以在系统保存修改的药品信息前任意时刻取消操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要修改的药品已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应当避免要修改的药品被其他管理员删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例管理之药品删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要删除的药品存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品被系统管理员删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员登录
+2. 药品管理之药品搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选择病例时不可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要删除的药品存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目管理之查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入化验项目管理界面，输入要搜索的关键字，向系统请求搜索，系统搜索完毕后刷新化验项目信息显示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目管理界面显示要搜索的化验项目条目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统根据化验项目名称搜索
+2. 关键字为空时显示所有化验项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目管理之添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理选进入化验项目管理界面，并向系统请求添加新的化验项目，系统请求管理员填写要添加的化验项目信息，管理员完成添加后请求系统保存信息，系统保存完毕后提示管理员新的化验项目已添加并刷新化验项目信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的化验项目被系统管理员添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目名称不可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目收费价格应当正确填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目管理之化验项目修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入化验项目管理页面直接选择要修改的化验项目或者搜索要修改的化验项目名称进行修改，系统管理员修改完成后请求系统保存，系统完成保存后提示管理员信息已修改并刷新化验项目管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要修改的化验项目信息存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员完成化验项目信息的修改操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录，化验项目管理之查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目只能单条逐个修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员可以在系统保存修改的化验项目信息前任意时刻取消操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要修改的化验项目已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应当避免要修改的化验项目被其他管理员删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.0系统管理员检索化验项目
+1. 系统管理员进入收费管理界面
+2. 系统管理员输入要搜索的关键字
+3. 系统管理员发出搜索请求
+4. 系统根据关键字进行搜索
+5. 搜索完成后刷新化验项目管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.0.E.1 搜索关键字过长（第2步）
+1. 系统提示搜索关键字过长，将搜索不到化验项目并请求管理员修改关键字
+2a. 系统管理员修改关键字重新搜索，用例继续进行
+2b. 系统管理员清除搜索内容，用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.0 系统管理员添加新化验项目
+1. 系统管理员进入化验项目管理界面，向系统请求添加化验项目
+2. 系统提示用户输入化验信息，包括名称、价格、等待时间等一种或多种信息
+3. 系统管理员填写完成后向系统请求添加操作
+4. 系统进行添加操作
+5. 系统完成添加操作后提示管理员化验项目已添加并刷新化验项目管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.0.E.1 化验项目信息未填写完全（第4步）
+1. 系统提示管理员化验项目信息未填写完全，请求继续填写
+2a. 系统管理员填写化验项目相关信息，用例继续进行
+2b. 系统管理员选择返回化验项目管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.0 系统管理员修改化验项目信息
+1. 系统管理员进入化验项目管理界面
+2. 系统管理员通过搜索选择化验项目或者直接选择化验项目
+3. 系统管理员请求修改化验项目信息
+4. 系统显示药品信息并请求系统管理员进行修改
+5. 系统管理员完成修改后请求系统保存修改后的信息
+6. 系统保存修改后的信息
+7. 系统保存完成后提示管理员化验项目已修改并刷新化验项目管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.0.E.1 化验项目信息未修改（第6步）
+1. 系统提示管理员项目信息未做修改，并询问是否修改
+2a. 系统管理员选择是，继续修改项目信息，用例继续进行
+3a. 系统管理员选择否，返回化验项目管理界面，用例终止
+19.0.E.2 化验项目必要信息未填写完全（第6步）
+1. 系统提示管理员化验项目必要信息未填写完全，请求继续填写
+2a. 系统管理员填写要修改的项目信息，用例继续进行
+2b. 系统管理员选择返回化验项目管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目管理之删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入药品管理界面，直接或者通过搜索选择要删除的药品，并向系统请求删除操作，系统完成删除操作后提示管理员药品已删除并刷新药品信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.0 系统管理员删除药品
+1. 系统管理员进入药品管理界面
+2. 系统管理员直接选择或搜索选择药品
+3. 系统管理员选择一个药品
+4. 系统管理员请求删除操作
+5. 系统删除药品同时通知管理员药品已删除并刷新药品管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.0.E.1 一个病例已被其他管理员删除（第5步）
+1. 系统提示管理员病例已被其他管理员删除
+2. 用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入化验项目管理界面，直接或者通过搜索选择要删除的项目，并向系统请求删除操作，系统完成删除操作后提示管理员项目已删除并刷新化验项目管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要删除的化验项目存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化验项目被系统管理员删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员登录
+2. 化验项目管理之药品查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选择项目时不可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要删除的化验项目存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.0 系统管理员删除某个化验项目
+1. 系统管理员进入化验项目管理界面
+2. 系统管理员直接选择或搜索选择化验项目
+3. 系统管理员选择一个化验项目
+4. 系统管理员请求删除操作
+5. 系统删除项目同时通知管理员项目已删除并刷新化验项目管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.0.E.1 化验项目已被其他管理员删除（第5步）
+1. 系统提示管理员化验项目已被其他管理员删除
+2. 用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病类型管理之查询</t>
+  </si>
+  <si>
+    <t>系统管理员进入疾病类型管理界面，输入要搜索的关键字，向系统请求搜索，系统搜索完毕后刷新疾病类型管理界面</t>
+  </si>
+  <si>
+    <t>疾病类型管理界面显示要搜索的疾病类型信息</t>
+  </si>
+  <si>
+    <t>21.0系统管理员检索疾病类型
+1. 系统管理员进入疾病类型管理界面
+2. 系统管理员输入要搜索的关键字
+3. 系统管理员发出搜索请求
+4. 系统根据关键字进行搜索
+5. 搜索完成后刷新疾病类型管理界面</t>
+  </si>
+  <si>
+    <t>17.0.E.1 搜索关键字过长（第2步）
+1. 系统提示搜索关键字过长，将搜索不到疾病类型信息并请求管理员修改关键字
+2a. 系统管理员修改关键字重新搜索，用例继续进行
+2b. 系统管理员清除搜索内容，用例终止</t>
+  </si>
+  <si>
+    <t>1. 系统根据疾病类型名称搜索
+2. 关键字为空时显示所有疾病类型</t>
+  </si>
+  <si>
+    <t>疾病类型管理之添加</t>
+  </si>
+  <si>
+    <t>系统管理选进入疾病类型管理界面，并向系统请求添加新的疾病类型，系统请求管理员填写要添加的疾病类型信息，管理员完成添加后请求系统保存信息，系统保存完毕后提示管理员该疾病类型已添加并刷新疾病类型管理界面</t>
+  </si>
+  <si>
+    <t>新的疾病类型被系统管理员添加</t>
+  </si>
+  <si>
+    <t>疾病类型名称不可重复</t>
+  </si>
+  <si>
+    <t>疾病类型管理之修改操作</t>
+  </si>
+  <si>
+    <t>系统管理员进入疾病类型管理页面直接选择要修改的疾病类型或者通过搜索进行选择修改，系统管理员修改完成后请求系统保存，系统完成保存后提示管理员信息已修改并刷新疾病类型管理界面</t>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要修改的疾病类型存在</t>
+  </si>
+  <si>
+    <t>系统管理员完成疾病类型信息的修改操作</t>
+  </si>
+  <si>
+    <t>系统管理员登录，疾病类型管理之查询</t>
+  </si>
+  <si>
+    <t>疾病类型只能单条逐个修改</t>
+  </si>
+  <si>
+    <t>系统管理员可以在系统保存修改的疾病类型信息前任意时刻取消操作</t>
+  </si>
+  <si>
+    <t>要修改的疾病类型已存在</t>
+  </si>
+  <si>
+    <t>应当避免要修改的疾病类型被其他管理员删除</t>
+  </si>
+  <si>
+    <t>疾病类型管理之删除操作</t>
+  </si>
+  <si>
+    <t>系统管理员进入疾病类型管理界面，直接或者通过搜索选择要删除的项目，并向系统请求删除操作，系统完成删除操作后提示管理员项目已删除并刷新疾病类型管理界面</t>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要删除的疾病类型存在</t>
+  </si>
+  <si>
+    <t>疾病类型被系统管理员删除</t>
+  </si>
+  <si>
+    <t>1. 系统管理员登录
+2. 疾病类型管理之查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要删除的疾病类型存在</t>
+  </si>
+  <si>
+    <t>UC-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.0 系统管理员添加疾病类型
+1. 系统管理员进入疾病类型管理界面，向系统请求添加疾病类型
+2. 系统提示用户输入疾病类型信息，主要是名称
+3. 系统管理员填写完成后向系统请求添加操作
+4. 系统进行添加操作
+5. 系统完成添加操作后提示管理员疾病类型已添加并刷新疾病类型管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.0.E.1 疾病类型信息未填写完全（第4步）
+1. 系统提示管理员疾病类型信息未填写完全，请求继续填写
+2a. 系统管理员填写疾病类型相关信息，用例继续进行
+2b. 系统管理员选择返回疾病类型管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.0 系统管理员修改疾病类型信息
+1. 系统管理员进入疾病类型管理界面
+2. 系统管理员通过搜索选择疾病类型或者直接选择疾病类型
+3. 系统管理员请求修改疾病类型信息
+4. 系统显示疾病类型信息并请求系统管理员进行修改
+5. 系统管理员完成修改后请求系统保存修改后的信息
+6. 系统保存修改后的信息
+7. 系统保存完成后提示管理员疾病类型已修改并刷新疾病类型管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.0.E.1 疾病类型信息未修改（第6步）
+1. 系统提示管理员疾病类型信息未做修改，并询问是否修改
+2a. 系统管理员选择是，继续修改疾病类型信息，用例继续进行
+3a. 系统管理员选择否，返回疾病类型管理界面，用例终止
+23.0.E.2 疾病类型必要信息未填写完全（第6步）
+1. 系统提示管理员疾病类型必要信息未填写完全，请求继续填写
+2a. 系统管理员填写要修改的疾病类型信息，用例继续进行
+2b. 系统管理员选择返回疾病类型管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.0 系统管理员删除某个疾病类型
+1. 系统管理员进入疾病类型管理界面
+2. 系统管理员直接选择或搜索选择疾病类型
+3. 系统管理员选择一个疾病类型
+4. 系统管理员请求删除操作
+5. 系统删除项目同时通知管理员项目已删除并刷新疾病类型管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.0.E.1 疾病类型已被其他管理员删除（第5步）
+1. 系统提示管理员疾病类型已被其他管理员删除
+2. 用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管理之查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入疾病管理界面，输入要搜索的关键字，向系统请求搜索，系统搜索完毕后刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管理界面显示要搜索的疾病信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.0系统管理员检索疾病
+1. 系统管理员进入疾病管理界面
+2. 系统管理员输入要搜索的关键字
+3. 系统管理员发出搜索请求
+4. 系统根据关键字进行搜索
+5. 搜索完成后刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.0.E.1 搜索关键字过长（第2步）
+1. 系统提示搜索关键字过长，将搜索不到疾病类型信息并请求管理员修改关键字
+2a. 系统管理员修改关键字重新搜索，用例继续进行
+2b. 系统管理员清除搜索内容，用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统根据疾病类名称搜索
+2. 关键字为空时显示所有疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管理之添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理选进入疾病管理界面，并向系统请求添加新的疾病，系统请求管理员填写要添加的疾病信息，管理员完成添加后请求系统保存信息，系统保存完毕后提示管理员该疾病已添加并刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的疾病被系统管理员添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.0 系统管理员添加疾病
+1. 系统管理员进入疾病管理界面，向系统请求添加疾病
+2. 系统提示用户输入疾病信息，主要是名称，所属疾病类型
+3. 系统管理员填写完成后向系统请求添加操作
+4. 系统进行添加操作
+5. 系统完成添加操作后提示管理员疾病已添加并刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.0.E.1 疾病信息未填写完全（第4步）
+1. 系统提示管理员疾病信息未填写完全，请求继续填写
+2a. 系统管理员填写疾病相关信息，用例继续进行
+2b. 系统管理员选择返回疾病管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名称不可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管理之修改操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入疾病管理页面直接选择要修改的疾病或者通过搜索进行选择修改，系统管理员修改完成后请求系统保存，系统完成保存后提示管理员信息已修改并刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要修改的疾病存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员完成疾病信息的修改操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.0 系统管理员修改疾病信息
+1. 系统管理员进入疾病管理界面
+2. 系统管理员通过搜索选择疾病或者直接选择疾病
+3. 系统管理员请求修改疾病信息
+4. 系统显示疾病信息并请求系统管理员进行修改
+5. 系统管理员完成修改后请求系统保存修改后的信息
+6. 系统保存修改后的信息
+7. 系统保存完成后提示管理员疾病已修改并刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.0.E.1 疾病信息未修改（第6步）
+1. 系统提示管理员疾病信息未做修改，并询问是否修改
+2a. 系统管理员选择是，继续修改疾病信息，用例继续进行
+3a. 系统管理员选择否，返回疾病管理界面，用例终止
+29.0.E.2 疾病必要信息未填写完全（第6步）
+1. 系统提示管理员疾病必要信息未填写完全，请求继续填写
+2a. 系统管理员填写要修改的疾病信息，用例继续进行
+2b. 系统管理员选择返回疾病管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录，疾病管理之查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病只能单条逐个修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员可以在系统保存修改的疾病信息前任意时刻取消操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要修改的疾病已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应当避免要修改的疾病被其他管理员删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管理之删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应当避免多个管理员同时进行删除操作
+2. 删除时应确实是否应该将该大类及其下的所有疾病与病例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员可以在系统删除之前取消删除操作
+2. 删除疾病类型时其下属的疾病和病例应当一起删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入疾病管理界面，直接或者通过搜索选择要删除的项目，并向系统请求删除操作，系统完成删除操作后提示管理员项目已删除并刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员已登录
+2. 要删除的疾病存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病被系统管理员删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.0 系统管理员删除某个疾病
+1. 系统管理员进入疾病管理界面
+2. 系统管理员直接选择或搜索选择疾病
+3. 系统管理员选择一个疾病
+4. 系统管理员请求删除操作
+5. 系统删除项目同时通知管理员项目已删除并刷新疾病管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.0.E.1 疾病已被其他管理员删除（第5步）
+1. 系统提示管理员疾病已被其他管理员删除
+2. 用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员可以在系统删除之前取消删除操作
+2. 删除疾病时其下的病例也应当一起删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要删除的疾病存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应当避免多个管理员同时进行删除操作
+2. 删除前应当确实其下的病例都应当被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 疾病类型从已有的类型中选择
+2. 疾病从已有类型中选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加的疾病名称应当有一定的意义，易于理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入病例管理页面直接选择要修改的病例或者搜索要修改的病例名称并进行病例修改，系统管理员修改完成后请求系统保存，系统完成保存后提示管理员病例信息已修改并刷新病例界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例只能单条逐个修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.0系统管理员检索病例
+1. 系统管理员进入病例管理界面
+2. 系统管理员输入要搜索的关键字
+3. 系统管理员发出搜索请求
+4. 系统根据关键字进行搜索
+5. 搜索完成后刷新病例信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.0.E.1 搜索关键字过长（第2步）
+1. 系统提示搜索关键字过长，将搜索不到病例并请求管理员修改关键字
+2a. 系统管理员修改关键字重新搜索，用例继续进行
+2b. 系统管理员清除搜索内容，用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.0 系统管理员添加新病例
+1. 系统管理员进入病例管理界面，向系统请求添加病例
+2. 系统提示用户输入病例信息，包括病例描述、接诊描述、病例检查、诊断结果、治疗方案这五个诊治过程中的一个或多个
+3. 系统管理员填写完成后向系统请求添加操作
+4. 系统进行添加操作
+5. 系统完成添加操作后提示管理员病例已添加并刷新病例信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.0.E.1 病例信息未填写完全（第4步）
+1. 系统提示管理员病例信息未填写完全，请求继续填写
+2a. 系统管理员填写病例信息，用例继续进行
+2b. 系统管理员选择返回病例管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.0 系统管理员修改病例信息
+1. 系统管理员进入病例管理界面
+2. 系统管理员通过搜索选择病例或者直接选择病例
+3. 系统管理员请求修改病例
+4. 系统显示病例信息并请求系统管理员进行修改
+5. 系统管理员完成修改后请求系统保存修改后的信息
+6. 系统保存修改后的信息
+7. 系统保存完成后提示管理员病例已修改并刷新病例界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.0.E.1 病例信息未修改（第6步）
+1. 系统提示管理员病例信息未做修改，并询问是否修改
+2a. 系统管理员选择是，继续修改病例信息，用例继续进行
+3a. 系统管理员选择否，返回病例管理界面，用例终止
+33.0.E.2 病例必要信息未填写完全（第6步）
+1. 系统提示管理员病例必要信息未填写完全，请求继续填写
+2a. 系统管理员填写要修改的病例信息，用例继续进行
+2b. 系统管理员选择返回病例管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.0 系统管理员删除单个病例
+1. 系统管理员进入病例管理界面
+2. 系统管理员直接选择或搜索选择病例
+3. 系统管理员选择一个病例
+4. 系统管理员请求删除操作
+5. 系统删除病例同时通知管理员病例已删除并刷新病例管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.1 系统管理员删除多个病例（第2步之后分支出来）
+1. 系统管理员选择多个病例
+2. 返回到第4步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.0.E.1 一个病例已被管理员删除（第5步）
+1. 系统提示管理员病例已被其他管理员删除
+2. 用例终止
+34.1.E.1 一个或多个病例已被管理员删除（第5步）
+1. 系统提示管理员一个或多个病例已被其他管理员删除
+2. 系统删除其他未被其他管理员删除的病例
+3. 用例继续进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.0 系统管理员对系统进行备份操作
+1. 系统管理员进入系统备份与恢复界面
+2. 系统管理员向系统发出备份请求
+3. 系统进行备份操作
+4. 系统提示管理员备份完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.0 系统管理员使用备份信息恢复系统
+1. 系统管理员进入备份与恢复界面
+2. 系统管理员选择已有备份信息中的一个
+3. 系统管理员请求恢复操作
+4. 系统进行恢复
+5. 系统恢复完成后提示管理员重新登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.0 系统管理员删除已有备份
+1. 系统管理员进入备份管理界面
+2. 系统管理员选择一个或多个备份信息
+3. 系统管理员请求删除操作
+4. 系统进行删除操作
+5. 系统提示管理员所选备份已被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.0.E.1 备份信息已被其他管理员删除
+1. 系统提示管理员备份信息已被其他管理员删除
+2. 系统继续删除未被删除的备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统管理员可以在系统修改病例前任意时刻取消操作
+2. 图片和视频上传应当有一定的网络带宽要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.0系统管理员检索药品
+1. 系统管理员进入药品管理界面
+2. 系统管理员输入要搜索的关键字
+3. 系统管理员发出搜索请求
+4. 系统根据关键字进行搜索
+5. 搜索完成后刷新药品信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.0.E.1 搜索关键字过长（第2步）
+1. 系统提示搜索关键字过长，将搜索不到药品并请求管理员修改关键字
+2a. 系统管理员修改关键字重新搜索，用例继续进行
+2b. 系统管理员清除搜索内容，用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.0 系统管理员添加新药品
+1. 系统管理员进入药品管理界面，向系统请求添加药品
+2. 系统提示用户输入药品信息，包括药品名称、药品价格、药品类别等一种或多种信息
+3. 系统管理员填写完成后向系统请求添加操作
+4. 系统进行添加操作
+5. 系统完成添加操作后提示管理员药品已添加并刷新药品信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.0.E.1 药品信息未填写完全（第4步）
+1. 系统提示管理员药品信息未填写完全，请求继续填写
+2a. 系统管理员填写药品信息，用例继续进行
+2b. 系统管理员选择返回药品管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.0 系统管理员修改药品信息
+1. 系统管理员进入药品管理界面
+2. 系统管理员通过搜索选择药品或者直接选择药品
+3. 系统管理员请求修改药品信息
+4. 系统显示药品信息并请求系统管理员进行修改
+5. 系统管理员完成修改后请求系统保存修改后的信息
+6. 系统保存修改后的信息
+7. 系统保存完成后提示管理员药品已修改并刷新药品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.0.E.1 药品信息未修改（第6步）
+1. 系统提示管理员药品信息未做修改，并询问是否修改
+2a. 系统管理员选择是，继续修改药品信息，用例继续进行
+3a. 系统管理员选择否，返回药品管理界面，用例终止
+14.0.E.2 药品必要信息未填写完全（第6步）
+1. 系统提示管理员药品必要信息未填写完全，请求继续填写
+2a. 系统管理员填写要修改的药品信息，用例继续进行
+2b. 系统管理员选择返回药品管理界面，系统终止用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品管理之药品删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.0 系统管理员删除药品
+1. 系统管理员进入药品管理界面
+2. 系统管理员直接选择或搜索选择药品
+3. 系统管理员选择一个药品
+4. 系统管理员请求删除操作
+5. 系统删除药品同时通知管理员药品已删除并刷新药品管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.0.E.1 一个病例已被其他管理员删除（第5步）
+1. 系统提示管理员病例已被其他管理员删除
+2. 用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费管理之检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员进入收费管理界面，输入要搜索的关键字，向系统请求搜索，系统搜索完毕后刷新收费信息显示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费信息界面显示要搜索的收费信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统根据收费条目名称搜索
+2. 关键字为空时显示所有收费条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费管理之收费条目添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理选进入收费管理界面，并向系统请求添加新的收费条目，系统请求管理员填写要添加的药品信息，管理员完成添加后请求系统保存信息，系统保存完毕后提示管理员药品已添加并刷新药品信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.0系统管理员检索收费条目
+1. 系统管理员进入收费管理界面
+2. 系统管理员输入要搜索的关键字
+3. 系统管理员发出搜索请求
+4. 系统根据关键字进行搜索
+5. 搜索完成后刷新收费信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.0.E.1 搜索关键字过长（第2步）
+1. 系统提示搜索关键字过长，将搜索不到收费条目并请求管理员修改关键字
+2a. 系统管理员修改关键字重新搜索，用例继续进行
+2b. 系统管理员清除搜索内容，用例终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费管理之修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,8 +2076,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1495,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B339"/>
+  <dimension ref="A2:B755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321:B339"/>
+    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
+      <selection activeCell="A673" sqref="A673:B692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2504,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="114" x14ac:dyDescent="0.2">
@@ -2723,6 +3608,9 @@
         <v>153</v>
       </c>
     </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B172" s="3"/>
+    </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>0</v>
@@ -2736,7 +3624,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2752,7 +3640,7 @@
         <v>8</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2760,7 +3648,7 @@
         <v>10</v>
       </c>
       <c r="B177" s="2">
-        <v>42792</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2768,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="B178" s="2">
-        <v>42792</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2776,7 +3664,7 @@
         <v>14</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2784,15 +3672,15 @@
         <v>17</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>157</v>
+      <c r="B181" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2800,23 +3688,23 @@
         <v>23</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>160</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2824,7 +3712,7 @@
         <v>30</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2832,7 +3720,7 @@
         <v>33</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2840,15 +3728,15 @@
         <v>36</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>161</v>
+      <c r="B188" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2856,7 +3744,7 @@
         <v>41</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2864,15 +3752,15 @@
         <v>43</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>164</v>
+      <c r="B191" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2888,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2912,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="B198" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2920,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="B199" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2928,7 +3816,7 @@
         <v>14</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2936,7 +3824,7 @@
         <v>17</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2952,15 +3840,15 @@
         <v>23</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>173</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="57" x14ac:dyDescent="0.2">
@@ -2968,7 +3856,7 @@
         <v>28</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>174</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2984,7 +3872,7 @@
         <v>33</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2992,23 +3880,23 @@
         <v>36</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>172</v>
+      <c r="B209" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>95</v>
+      <c r="B210" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -3016,7 +3904,7 @@
         <v>43</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -3024,7 +3912,7 @@
         <v>45</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -3032,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>175</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -3040,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -3064,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B219" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -3072,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="B220" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -3080,7 +3968,7 @@
         <v>14</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -3088,15 +3976,15 @@
         <v>17</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>178</v>
+      <c r="B223" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -3104,23 +3992,23 @@
         <v>23</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>184</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -3128,7 +4016,7 @@
         <v>30</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -3136,7 +4024,7 @@
         <v>33</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -3144,23 +4032,23 @@
         <v>36</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -3168,7 +4056,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -3176,7 +4064,7 @@
         <v>45</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -3184,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -3192,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>186</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -3208,7 +4096,7 @@
         <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -3216,7 +4104,7 @@
         <v>10</v>
       </c>
       <c r="B240" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -3224,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="B241" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -3232,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -3240,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -3248,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -3256,31 +4144,31 @@
         <v>23</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>193</v>
+      <c r="B248" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -3288,7 +4176,7 @@
         <v>33</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -3296,23 +4184,23 @@
         <v>36</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>192</v>
+      <c r="B252" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -3320,7 +4208,7 @@
         <v>43</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -3328,623 +4216,3663 @@
         <v>45</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="B260" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B261" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B262" s="2">
-        <v>42793</v>
+        <v>14</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>143</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>206</v>
+        <v>39</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>207</v>
+        <v>43</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>212</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="B281" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="B282" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B283" s="2">
-        <v>42793</v>
+        <v>14</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B284" s="2">
-        <v>42793</v>
+        <v>17</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>217</v>
+        <v>30</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>150</v>
+        <v>41</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="B302" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
+      </c>
+      <c r="B303" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B304" s="2">
-        <v>42793</v>
+        <v>14</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B305" s="2">
-        <v>42793</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>232</v>
+        <v>30</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>231</v>
+        <v>41</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>230</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="B323" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="B324" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B325" s="2">
-        <v>42793</v>
+        <v>14</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B326" s="2">
-        <v>42793</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>239</v>
+        <v>33</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B355" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B365" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B386" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B426" s="2">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" s="2">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B467" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B488" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B509" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B510" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B530" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B531" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B552" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B572" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B573" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B593" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B594" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B614" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B615" s="2">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A620" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A625" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B626" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
+      <c r="B627" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>242</v>
+      <c r="B628" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B635" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B636" s="2">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A641" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A646" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A647" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B656" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B657" s="2">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A660" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A663" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A668" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B677" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B678" s="2">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B699" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B700" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B720" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B721" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A734" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B741" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B742" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A747" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A748" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A755" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
